--- a/biology/Zoologie/Caenorhabditis_japonica/Caenorhabditis_japonica.xlsx
+++ b/biology/Zoologie/Caenorhabditis_japonica/Caenorhabditis_japonica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caenorhabditis japonica est une espèce gonochorique de nématodes de la famille des Rhabditidae.
 Le génome de cette espèce a été séquencé au Genome Center de l'Université de Washington.
-Dans la nature, l'espèce n'est pas parasite mais se trouve associée avec la punaise Parastrachia japonensis (Heteroptera: Cydnidae) et se montre capable d'entrer dans le stade dauer quelles que soient les conditions de disponibilité en nourriture ou de surpopulation[3],[4].
+Dans la nature, l'espèce n'est pas parasite mais se trouve associée avec la punaise Parastrachia japonensis (Heteroptera: Cydnidae) et se montre capable d'entrer dans le stade dauer quelles que soient les conditions de disponibilité en nourriture ou de surpopulation,.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Études phylogénétiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C. japonica forme un groupe japonica avec d'autres espèces de Caenorhabditis (C. imperialis, C. kamaaina). Ce groupe est le groupe frère du groupe 'Elegans' dans le super-groupe elegans où se situe l'espèce modèle C. elegans.
 </t>
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Karin C. Kiontke, Mantaro Hironaka et Walter Sudhaus, « Description of Caenorhabditis japonica n. sp. (Nematoda: Rhabditida) associated with the burrower bug Parastrachia japonensis (Heteroptera: Cydnidae) in Japan », Nematology, Éditions Brill, vol. 4, no 8,‎ 2002, p. 933-941 (ISSN 1388-5545 et 1568-5411, OCLC 456621842, DOI 10.1163/156854102321122557, lire en ligne)</t>
         </is>
